--- a/Login - ATS-19.xlsx
+++ b/Login - ATS-19.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8265" windowHeight="5325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8268" windowHeight="5328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -47,15 +47,9 @@
     <t>usernameEmpty</t>
   </si>
   <si>
-    <t>fairytailfg@gmail.com</t>
-  </si>
-  <si>
     <t>passwordEmpty</t>
   </si>
   <si>
-    <t>fairy</t>
-  </si>
-  <si>
     <t>usernameWrong</t>
   </si>
   <si>
@@ -66,12 +60,21 @@
   </si>
   <si>
     <t>success</t>
+  </si>
+  <si>
+    <t>usernameNpassEmpty</t>
+  </si>
+  <si>
+    <t>lexantyoke@gmail.com</t>
+  </si>
+  <si>
+    <t>lexant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,15 +397,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,73 +424,80 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2" display="fairytailfg@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId1" display="lexantyoke@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Login - ATS-19.xlsx
+++ b/Login - ATS-19.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8268" windowHeight="5328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8265" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -50,9 +50,6 @@
     <t>passwordEmpty</t>
   </si>
   <si>
-    <t>usernameWrong</t>
-  </si>
-  <si>
     <t>Application</t>
   </si>
   <si>
@@ -68,13 +65,22 @@
     <t>lexantyoke@gmail.com</t>
   </si>
   <si>
-    <t>lexant</t>
+    <t>applicationtester77@gmail.com</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>usernameDontExist</t>
+  </si>
+  <si>
+    <t>appli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,20 +403,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,29 +429,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -457,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -468,36 +473,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="lexantyoke@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId1" display="applicationtester77@gmail.com"/>
     <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A7" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Login - ATS-19.xlsx
+++ b/Login - ATS-19.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8268" windowHeight="5328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8265" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -47,9 +47,15 @@
     <t>usernameEmpty</t>
   </si>
   <si>
+    <t>fairytailfg@gmail.com</t>
+  </si>
+  <si>
     <t>passwordEmpty</t>
   </si>
   <si>
+    <t>fairy</t>
+  </si>
+  <si>
     <t>usernameWrong</t>
   </si>
   <si>
@@ -60,21 +66,12 @@
   </si>
   <si>
     <t>success</t>
-  </si>
-  <si>
-    <t>usernameNpassEmpty</t>
-  </si>
-  <si>
-    <t>lexantyoke@gmail.com</t>
-  </si>
-  <si>
-    <t>lexant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,20 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,80 +416,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="lexantyoke@gmail.com"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A7" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2" display="fairytailfg@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Login - ATS-19.xlsx
+++ b/Login - ATS-19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -47,9 +47,6 @@
     <t>usernameEmpty</t>
   </si>
   <si>
-    <t>fairytailfg@gmail.com</t>
-  </si>
-  <si>
     <t>passwordEmpty</t>
   </si>
   <si>
@@ -59,13 +56,19 @@
     <t>usernameWrong</t>
   </si>
   <si>
-    <t>Application</t>
-  </si>
-  <si>
     <t>passwordWrong</t>
   </si>
   <si>
     <t>success</t>
+  </si>
+  <si>
+    <t>applicationtester77@gmail.com</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -429,10 +437,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -440,13 +448,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -454,13 +462,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -468,13 +476,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
